--- a/medicine/Sexualité et sexologie/Les_Charnelles/Les_Charnelles.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Charnelles/Les_Charnelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Charnelles est un film dramatique et érotique français, écrit et réalisé par Claude Mulot en 1974. Son éditeur Le Chat qui fume le présente comme « un road-movie sombre et sans concession »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Charnelles est un film dramatique et érotique français, écrit et réalisé par Claude Mulot en 1974. Son éditeur Le Chat qui fume le présente comme « un road-movie sombre et sans concession ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît est issu d'une famille privilégiée : aisé et séduisant, il affronte pourtant de nombreuses névroses quotidiennes. Impuissant, l'homme n'atteint la jouissance que dans le voyeurisme.
 Lorsque sa route croise celle du ténébreux Jean-Pierre, puis de la ravissante Isabelle, le trio se lance dans un voyage sans retour. Alors que Benoît cherche à retrouver sa virilité, le couple instable court vers une renaissance.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre : Les Charnelles
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Francis Lemonnier : Benoît
 Patrick Penn : Jean-Pierre
@@ -626,9 +644,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les Charnelles a bénéficié d'un recueil de photos de tournage, paru aux Editions Nitrate. Le livre comporte plus de 400 photographies exclusives et jusqu'alors inédites dont les photos d'une scène coupée au montage final[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Charnelles a bénéficié d'un recueil de photos de tournage, paru aux Editions Nitrate. Le livre comporte plus de 400 photographies exclusives et jusqu'alors inédites dont les photos d'une scène coupée au montage final.</t>
         </is>
       </c>
     </row>
